--- a/Test Data/SAVIYNT - Test Scenarios 300818.xlsx
+++ b/Test Data/SAVIYNT - Test Scenarios 300818.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{41583D1E-C5BF-41D2-9F55-7BC3670A8191}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100800_{DC2C7E0F-25BB-4AE0-8B5A-7D0F6134116E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18420" windowHeight="5530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10850" windowHeight="2450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="User Testing Scenario's " sheetId="3" r:id="rId1"/>
@@ -2076,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="C6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2372,7 +2372,7 @@
         <v>80</v>
       </c>
       <c r="H6" s="44" t="s">
-        <v>50</v>
+        <v>146</v>
       </c>
       <c r="I6" s="44" t="s">
         <v>53</v>
